--- a/biology/Médecine/Abbaye_de_Haina/Abbaye_de_Haina.xlsx
+++ b/biology/Médecine/Abbaye_de_Haina/Abbaye_de_Haina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye de Haina est une ancienne abbaye cistercienne à Haina.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la fondation d'une abbaye bénédictine sur l'Aulesburg vers 1140 par le comte Poppon de Reichenbach et son gendre Volkwin II de Schwalenberg, l'abbaye de Kamp cherche à s'installer dans la même région. Trois moines s'y essaient en 1144 mais échouent. Après des négociations, le monastère est vraiment fondé en 1188 en tant qu'abbaye-fille de l'abbaye d'Altenberg.
 En 1201, l'abbaye acquiert des propriétés vers Haina sur 4 kilomètres le long de la Wohra. Le village est dissous et devient un domaine d'élevage pour les moines ; les six familles reçoivent des compensations. En 1215, le monastère d'Aulesburg est déplacé à Haina après que Henri II de Reichenbach ait redonné les possessions du monastère pour lui vendre le village de Haina. L'abbaye connaît une grande expansion économique et de ses domaines. Elle fournit de nombreux endroits en produits agricoles, comme la Hainer Hof à Francfort-sur-le-Main.
